--- a/src/main/java/com/avlview/app/testdata/testdata.xlsx
+++ b/src/main/java/com/avlview/app/testdata/testdata.xlsx
@@ -19,20 +19,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>Text1</t>
   </si>
   <si>
+    <t>Tcid</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Text_contains</t>
+  </si>
+  <si>
     <t>Text2</t>
   </si>
   <si>
+    <t>Logintest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>tranqtesting191@gmail.com</t>
+  </si>
+  <si>
     <t>Text3</t>
   </si>
   <si>
+    <t>welcome1</t>
+  </si>
+  <si>
     <t>Text4</t>
   </si>
   <si>
+    <t>Invalid username/password, please try again!</t>
+  </si>
+  <si>
     <t>Text5</t>
   </si>
   <si>
@@ -57,39 +90,6 @@
     <t>عربي</t>
   </si>
   <si>
-    <t>Tcid</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Text_contains</t>
-  </si>
-  <si>
-    <t>Logintest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>tranqtesting191@gmail.com</t>
-  </si>
-  <si>
-    <t>welcome1</t>
-  </si>
-  <si>
-    <t>Invalid username/password, please try again!</t>
-  </si>
-  <si>
     <t>mapview</t>
   </si>
   <si>
@@ -105,24 +105,24 @@
     <t>Forgotpasswordpage</t>
   </si>
   <si>
+    <t>Expected_profilename</t>
+  </si>
+  <si>
     <t>Blankusername</t>
   </si>
   <si>
+    <t>Expected_Email</t>
+  </si>
+  <si>
     <t>Blankusername_Expected</t>
   </si>
   <si>
+    <t>Expected_Mobile</t>
+  </si>
+  <si>
     <t>Invaliduser</t>
   </si>
   <si>
-    <t>Expected_profilename</t>
-  </si>
-  <si>
-    <t>Expected_Email</t>
-  </si>
-  <si>
-    <t>Expected_Mobile</t>
-  </si>
-  <si>
     <t>Expected_Accountsettings</t>
   </si>
   <si>
@@ -276,55 +276,52 @@
     <t>(GMT+04:00) Port Louis</t>
   </si>
   <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>You missed to enter the Company name.</t>
+  </si>
+  <si>
+    <t>testfname4</t>
+  </si>
+  <si>
+    <t>lname4</t>
+  </si>
+  <si>
+    <t>789@kk3.co</t>
+  </si>
+  <si>
+    <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
+  </si>
+  <si>
+    <t>You must choose a payment plan to proceed.</t>
+  </si>
+  <si>
+    <t>tele.png</t>
+  </si>
+  <si>
+    <t>tranq1</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>tranqtesting1@gmail.com</t>
+  </si>
+  <si>
     <t>Taxdesc</t>
   </si>
   <si>
-    <t>1 Year</t>
-  </si>
-  <si>
-    <t>You missed to enter the Company name.</t>
-  </si>
-  <si>
     <t>Taxamt</t>
   </si>
   <si>
-    <t>testfname4</t>
-  </si>
-  <si>
-    <t>lname4</t>
+    <t>You just added a new Client.</t>
   </si>
   <si>
     <t>GST</t>
   </si>
   <si>
-    <t>789@kk3.co</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>(GMT+05:30) Chennai, Kolkata, Mumbai, New Delhi</t>
-  </si>
-  <si>
-    <t>You must choose a payment plan to proceed.</t>
-  </si>
-  <si>
-    <t>tele.png</t>
-  </si>
-  <si>
-    <t>tranq19</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>You just added a new Client.</t>
-  </si>
-  <si>
-    <t>tranq20</t>
-  </si>
-  <si>
-    <t>tranqtesting20@gmail.com</t>
   </si>
   <si>
     <t>IMEI</t>
@@ -479,11 +476,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -509,11 +506,11 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -585,18 +582,18 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
@@ -1623,39 +1620,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1679,30 +1676,30 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -1710,13 +1707,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -1764,13 +1761,13 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
@@ -1802,7 +1799,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>52</v>
@@ -1831,19 +1828,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>34</v>
@@ -3035,22 +3032,22 @@
         <v>84</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="E6" s="9">
         <v>423.0</v>
@@ -3062,30 +3059,30 @@
         <v>66</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13">
+        <v>95</v>
+      </c>
+      <c r="E7" s="12">
         <v>91.0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>9.400183539E9</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3098,36 +3095,7 @@
         <v>73</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="13">
-        <v>91.0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>7.907097977E9</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3147,18 +3115,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3181,81 +3149,81 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3286,127 +3254,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D2" s="1">
         <v>100.0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="1">
         <v>100.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1">
         <v>100.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D6" s="1">
         <v>100.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D7" s="1">
         <v>100.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
